--- a/data/case1/5/V2_1.xlsx
+++ b/data/case1/5/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999209768931</v>
+        <v>0.99999999207303236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99566576077823576</v>
+        <v>0.9951792243656219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97614574948984112</v>
+        <v>0.97310449354629558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96760496711034283</v>
+        <v>0.9648505055369565</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95951438762907548</v>
+        <v>0.95706098909194526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9418422240290707</v>
+        <v>0.94117971484604479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93651092680507686</v>
+        <v>0.93778405841862233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92961968892063429</v>
+        <v>0.93415576778690967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92155644585407348</v>
+        <v>0.9315478592080213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.914410430735211</v>
+        <v>0.92988237057145118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.91341830121284051</v>
+        <v>0.92977994558757648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91178657567809651</v>
+        <v>0.92984139938621035</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90573812333519133</v>
+        <v>0.93167504139234103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90381314988644856</v>
+        <v>0.93318985971473745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90337849911288171</v>
+        <v>0.93519206289179646</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90345781774951983</v>
+        <v>0.93830839387214393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90507872638407361</v>
+        <v>0.93460081222559954</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90396982950618665</v>
+        <v>0.93349193436346145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99461257986038676</v>
+        <v>0.99412602342080836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98749566157803703</v>
+        <v>0.98700922226829091</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9860971978553208</v>
+        <v>0.98561078332973218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98483270165478443</v>
+        <v>0.98434630123655187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.969110395705575</v>
+        <v>0.96606894022155643</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95608894438075154</v>
+        <v>0.95304728973569253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9496318593703752</v>
+        <v>0.94659017544450219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94082789151483515</v>
+        <v>0.93921089014612913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93966645138462934</v>
+        <v>0.93540221122774403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93636750750923681</v>
+        <v>0.92022428485011454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93464408288118406</v>
+        <v>0.90960052813372327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93446803683190494</v>
+        <v>0.90478769180199303</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93059990020674732</v>
+        <v>0.90339914367534091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93050486648713249</v>
+        <v>0.90406033610299819</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93262241438057747</v>
+        <v>0.90354034591190824</v>
       </c>
     </row>
   </sheetData>
